--- a/docs/QBEA.xlsx
+++ b/docs/QBEA.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia2\code\sdmp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\IdeaProjects\sdmp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="3" r:id="rId1"/>
     <sheet name="Experiment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Time</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Running experiment Optimal bias: 100 repeated 1000 averaged over 30</t>
   </si>
   <si>
-    <t>Time: 0.012 sec.</t>
-  </si>
-  <si>
     <t>Running experiment EDO bias: 100 repeated 1000 averaged over 30</t>
   </si>
   <si>
@@ -78,34 +75,43 @@
     <t>Optimal</t>
   </si>
   <si>
-    <t>Time: 0.017 sec.</t>
-  </si>
-  <si>
     <t>EDO</t>
   </si>
   <si>
-    <t>Time: 0.016 sec.</t>
-  </si>
-  <si>
     <t>QLearning</t>
   </si>
   <si>
-    <t>Time: 0.055 sec.</t>
-  </si>
-  <si>
-    <t>Time: 0.009 sec.</t>
-  </si>
-  <si>
-    <t>Bias 100</t>
-  </si>
-  <si>
-    <t>Rewards</t>
+    <t>QBEA</t>
+  </si>
+  <si>
+    <t>Time: 0.01 sec.</t>
+  </si>
+  <si>
+    <t>Time: 0.007 sec.</t>
+  </si>
+  <si>
+    <t>Time: 0.04 sec.</t>
+  </si>
+  <si>
+    <t>Running experiment QBEA bias: 100 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Time: 0.02 sec.</t>
+  </si>
+  <si>
+    <t>Time: 0.003 sec.</t>
+  </si>
+  <si>
+    <t>Running experiment QBEA bias: 15 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Time: 0.013 sec.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,12 +169,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,12 +198,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -467,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -1211,43 +1234,43 @@
         <v>130</v>
       </c>
       <c r="D20" s="1">
-        <f>IF(C19&gt;=0,30-2*(D19-D$2)+$B$18, 30-2*(D19-D$2)-$B$18)</f>
+        <f t="shared" ref="D20:M20" si="35">IF(C19&gt;=0,30-2*(D19-D$2)+$B$18, 30-2*(D19-D$2)-$B$18)</f>
         <v>120</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(D19&gt;=0,30-2*(E19-E$2)+$B$18, 30-2*(E19-E$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(E19&gt;=0,30-2*(F19-F$2)+$B$18, 30-2*(F19-F$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="G20" s="1">
-        <f>IF(F19&gt;=0,30-2*(G19-G$2)+$B$18, 30-2*(G19-G$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="H20" s="1">
-        <f>IF(G19&gt;=0,30-2*(H19-H$2)+$B$18, 30-2*(H19-H$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="I20" s="1">
-        <f>IF(H19&gt;=0,30-2*(I19-I$2)+$B$18, 30-2*(I19-I$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="J20" s="1">
-        <f>IF(I19&gt;=0,30-2*(J19-J$2)+$B$18, 30-2*(J19-J$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="K20" s="1">
-        <f>IF(J19&gt;=0,30-2*(K19-K$2)+$B$18, 30-2*(K19-K$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="L20" s="1">
-        <f>IF(K19&gt;=0,30-2*(L19-L$2)+$B$18, 30-2*(L19-L$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="M20" s="1">
-        <f>IF(L19&gt;=0,30-2*(M19-M$2)+$B$18, 30-2*(M19-M$2)-$B$18)</f>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="N20" s="1"/>
@@ -1269,39 +1292,39 @@
         <v>250</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21" si="35">D21+E20</f>
+        <f t="shared" ref="E21" si="36">D21+E20</f>
         <v>380</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21" si="36">E21+F20</f>
+        <f t="shared" ref="F21" si="37">E21+F20</f>
         <v>500</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21" si="37">F21+G20</f>
+        <f t="shared" ref="G21" si="38">F21+G20</f>
         <v>630</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21" si="38">G21+H20</f>
+        <f t="shared" ref="H21" si="39">G21+H20</f>
         <v>750</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21" si="39">H21+I20</f>
+        <f t="shared" ref="I21" si="40">H21+I20</f>
         <v>880</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J21" si="40">I21+J20</f>
+        <f t="shared" ref="J21" si="41">I21+J20</f>
         <v>1000</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21" si="41">J21+K20</f>
+        <f t="shared" ref="K21" si="42">J21+K20</f>
         <v>1130</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21" si="42">K21+L20</f>
+        <f t="shared" ref="L21" si="43">K21+L20</f>
         <v>1250</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21" si="43">L21+M20</f>
+        <f t="shared" ref="M21" si="44">L21+M20</f>
         <v>1380</v>
       </c>
       <c r="N21" s="1">
@@ -1403,39 +1426,39 @@
         <v>100</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:M25" si="44">IF(D24&gt;=0,30-2*(E24-E$2)+$B$23, 30-2*(E24-E$2)-$B$23)</f>
+        <f t="shared" ref="E25:M25" si="45">IF(D24&gt;=0,30-2*(E24-E$2)+$B$23, 30-2*(E24-E$2)-$B$23)</f>
         <v>130</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>130</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>130</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>130</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>130</v>
       </c>
       <c r="N25" s="2"/>
@@ -1457,15 +1480,15 @@
         <v>230</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E26" si="45">D26+E25</f>
+        <f t="shared" ref="E26" si="46">D26+E25</f>
         <v>360</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26" si="46">E26+F25</f>
+        <f t="shared" ref="F26" si="47">E26+F25</f>
         <v>460</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26" si="47">F26+G25</f>
+        <f t="shared" ref="G26" si="48">F26+G25</f>
         <v>590</v>
       </c>
       <c r="H26" s="2">
@@ -1473,23 +1496,23 @@
         <v>690</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26" si="48">H26+I25</f>
+        <f t="shared" ref="I26" si="49">H26+I25</f>
         <v>820</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" ref="J26" si="49">I26+J25</f>
+        <f t="shared" ref="J26" si="50">I26+J25</f>
         <v>920</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26" si="50">J26+K25</f>
+        <f t="shared" ref="K26" si="51">J26+K25</f>
         <v>1050</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ref="L26" si="51">K26+L25</f>
+        <f t="shared" ref="L26" si="52">K26+L25</f>
         <v>1150</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26" si="52">L26+M25</f>
+        <f t="shared" ref="M26" si="53">L26+M25</f>
         <v>1280</v>
       </c>
       <c r="N26" s="2">
@@ -1606,43 +1629,43 @@
         <v>130</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:M30" si="53">IF(C29&gt;=0,30-2*(D29-D$2)+$B$28, 30-2*(D29-D$2)-$B$28)</f>
+        <f t="shared" ref="D30:M30" si="54">IF(C29&gt;=0,30-2*(D29-D$2)+$B$28, 30-2*(D29-D$2)-$B$28)</f>
         <v>118</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>118</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>118</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>118</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>118</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="N30" s="2"/>
@@ -1664,39 +1687,39 @@
         <v>248</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31" si="54">D31+E30</f>
+        <f t="shared" ref="E31" si="55">D31+E30</f>
         <v>378</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31" si="55">E31+F30</f>
+        <f t="shared" ref="F31" si="56">E31+F30</f>
         <v>496</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" ref="G31" si="56">F31+G30</f>
+        <f t="shared" ref="G31" si="57">F31+G30</f>
         <v>626</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" ref="H31" si="57">G31+H30</f>
+        <f t="shared" ref="H31" si="58">G31+H30</f>
         <v>744</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" ref="I31" si="58">H31+I30</f>
+        <f t="shared" ref="I31" si="59">H31+I30</f>
         <v>874</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" ref="J31" si="59">I31+J30</f>
+        <f t="shared" ref="J31" si="60">I31+J30</f>
         <v>992</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" ref="K31" si="60">J31+K30</f>
+        <f t="shared" ref="K31" si="61">J31+K30</f>
         <v>1122</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" ref="L31" si="61">K31+L30</f>
+        <f t="shared" ref="L31" si="62">K31+L30</f>
         <v>1240</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" ref="M31" si="62">L31+M30</f>
+        <f t="shared" ref="M31" si="63">L31+M30</f>
         <v>1370</v>
       </c>
       <c r="N31" s="2">
@@ -1724,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,180 +1758,248 @@
     <col min="1" max="1" width="61.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>125000</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
+        <v>125000</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="6">
+        <v>99385.333333333299</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6">
+        <v>25847.5333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>30200</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>30200</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6">
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="6">
+        <v>28896.933333333302</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6">
+        <v>28842.333333333299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>51500.0666666666</v>
+        <v>99385.333333333299</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>40000</v>
+        <v>28896.933333333302</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>30030</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>40000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>14359.4666666666</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>30030</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="H19">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>25847.5333333333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>28842.333333333299</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="H20">
-        <v>30200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>51500.0666666666</v>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/QBEA.xlsx
+++ b/docs/QBEA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>Time</t>
   </si>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,11 +1892,37 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>125000</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6">
+        <v>40000</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1908,10 +1934,51 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6">
+        <v>99385.333333333299</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="6">
+        <v>25847.5333333333</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6">
+        <v>30200</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="6">
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6">
+        <v>70013</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6">
+        <v>30273</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/docs/QBEA.xlsx
+++ b/docs/QBEA.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="3" r:id="rId1"/>
     <sheet name="Experiment" sheetId="4" r:id="rId2"/>
+    <sheet name="QBEA Q-Values" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t>Time</t>
   </si>
@@ -106,6 +107,24 @@
   </si>
   <si>
     <t>Time: 0.013 sec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Running experiment QLearning bias: 100 repeated 1000 averaged over 1</t>
+  </si>
+  <si>
+    <t>Time: 0.043 sec.</t>
+  </si>
+  <si>
+    <t>Running experiment QBEA bias: 100 repeated 1000 averaged over 1</t>
+  </si>
+  <si>
+    <t>Time: 0.419 sec.</t>
+  </si>
+  <si>
+    <t>Time: 0.092 sec.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2069,4 +2088,694 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>-10</v>
+      </c>
+      <c r="C2">
+        <v>-9</v>
+      </c>
+      <c r="D2">
+        <v>-8</v>
+      </c>
+      <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>-6</v>
+      </c>
+      <c r="G2">
+        <v>-5</v>
+      </c>
+      <c r="H2">
+        <v>-4</v>
+      </c>
+      <c r="I2">
+        <v>-3</v>
+      </c>
+      <c r="J2">
+        <v>-2</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>253.94</v>
+      </c>
+      <c r="D3">
+        <v>227.79</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>223.67</v>
+      </c>
+      <c r="G3">
+        <v>57.99</v>
+      </c>
+      <c r="H3">
+        <v>143.22999999999999</v>
+      </c>
+      <c r="I3">
+        <v>57.03</v>
+      </c>
+      <c r="J3">
+        <v>182.86</v>
+      </c>
+      <c r="K3">
+        <v>237.64</v>
+      </c>
+      <c r="L3">
+        <v>257.20999999999998</v>
+      </c>
+      <c r="M3">
+        <v>175.28</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>125.28</v>
+      </c>
+      <c r="P3">
+        <v>258.45</v>
+      </c>
+      <c r="Q3">
+        <v>172.87</v>
+      </c>
+      <c r="R3">
+        <v>249.84</v>
+      </c>
+      <c r="S3">
+        <v>214.91</v>
+      </c>
+      <c r="T3">
+        <v>271.81</v>
+      </c>
+      <c r="U3">
+        <v>335.57</v>
+      </c>
+      <c r="V3">
+        <v>212.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>122.2</v>
+      </c>
+      <c r="C4">
+        <v>172.7</v>
+      </c>
+      <c r="D4">
+        <v>257.38</v>
+      </c>
+      <c r="E4">
+        <v>257.33999999999997</v>
+      </c>
+      <c r="F4">
+        <v>85.72</v>
+      </c>
+      <c r="G4">
+        <v>154.35</v>
+      </c>
+      <c r="H4">
+        <v>163.13999999999999</v>
+      </c>
+      <c r="I4">
+        <v>128.41999999999999</v>
+      </c>
+      <c r="J4">
+        <v>236.73</v>
+      </c>
+      <c r="K4">
+        <v>273.25</v>
+      </c>
+      <c r="L4">
+        <v>112.09</v>
+      </c>
+      <c r="M4">
+        <v>272.23</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>155.28</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>258.64</v>
+      </c>
+      <c r="R4">
+        <v>344.9</v>
+      </c>
+      <c r="S4">
+        <v>106.96</v>
+      </c>
+      <c r="T4">
+        <v>247.98</v>
+      </c>
+      <c r="U4">
+        <v>33.21</v>
+      </c>
+      <c r="V4">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>102200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>-10</v>
+      </c>
+      <c r="C8">
+        <v>-9</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-4</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <v>145.11000000000001</v>
+      </c>
+      <c r="C9">
+        <v>147.13999999999999</v>
+      </c>
+      <c r="D9">
+        <v>149.11000000000001</v>
+      </c>
+      <c r="E9">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="F9">
+        <v>153.1</v>
+      </c>
+      <c r="G9">
+        <v>156.41</v>
+      </c>
+      <c r="H9">
+        <v>153.09</v>
+      </c>
+      <c r="I9">
+        <v>151.27000000000001</v>
+      </c>
+      <c r="J9">
+        <v>149.15</v>
+      </c>
+      <c r="K9">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="L9">
+        <v>145.11000000000001</v>
+      </c>
+      <c r="M9">
+        <v>143.11000000000001</v>
+      </c>
+      <c r="N9">
+        <v>141.11000000000001</v>
+      </c>
+      <c r="O9">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="P9">
+        <v>137.11000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>135.11000000000001</v>
+      </c>
+      <c r="R9">
+        <v>133.11000000000001</v>
+      </c>
+      <c r="S9">
+        <v>131.11000000000001</v>
+      </c>
+      <c r="T9">
+        <v>129.11000000000001</v>
+      </c>
+      <c r="U9">
+        <v>127.11</v>
+      </c>
+      <c r="V9">
+        <v>125.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7.29</v>
+      </c>
+      <c r="C10">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="D10">
+        <v>11.29</v>
+      </c>
+      <c r="E10">
+        <v>13.29</v>
+      </c>
+      <c r="F10">
+        <v>15.29</v>
+      </c>
+      <c r="G10">
+        <v>17.29</v>
+      </c>
+      <c r="H10">
+        <v>19.29</v>
+      </c>
+      <c r="I10">
+        <v>21.29</v>
+      </c>
+      <c r="J10">
+        <v>23.29</v>
+      </c>
+      <c r="K10">
+        <v>25.29</v>
+      </c>
+      <c r="L10">
+        <v>27.29</v>
+      </c>
+      <c r="M10">
+        <v>29.29</v>
+      </c>
+      <c r="N10">
+        <v>-58.79</v>
+      </c>
+      <c r="O10">
+        <v>33.29</v>
+      </c>
+      <c r="P10">
+        <v>35.28</v>
+      </c>
+      <c r="Q10">
+        <v>38.54</v>
+      </c>
+      <c r="R10">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="S10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T10">
+        <v>31.29</v>
+      </c>
+      <c r="U10">
+        <v>29.29</v>
+      </c>
+      <c r="V10">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>25436</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>-10</v>
+      </c>
+      <c r="C16">
+        <v>-9</v>
+      </c>
+      <c r="D16">
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <v>-7</v>
+      </c>
+      <c r="F16">
+        <v>-6</v>
+      </c>
+      <c r="G16">
+        <v>-5</v>
+      </c>
+      <c r="H16">
+        <v>-4</v>
+      </c>
+      <c r="I16">
+        <v>-3</v>
+      </c>
+      <c r="J16">
+        <v>-2</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>253.94</v>
+      </c>
+      <c r="D17">
+        <v>227.79</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>223.67</v>
+      </c>
+      <c r="G17">
+        <v>57.99</v>
+      </c>
+      <c r="H17">
+        <v>143.22999999999999</v>
+      </c>
+      <c r="I17">
+        <v>57.03</v>
+      </c>
+      <c r="J17">
+        <v>182.86</v>
+      </c>
+      <c r="K17">
+        <v>237.64</v>
+      </c>
+      <c r="L17">
+        <v>257.20999999999998</v>
+      </c>
+      <c r="M17">
+        <v>175.28</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>125.28</v>
+      </c>
+      <c r="P17">
+        <v>258.45</v>
+      </c>
+      <c r="Q17">
+        <v>172.87</v>
+      </c>
+      <c r="R17">
+        <v>249.84</v>
+      </c>
+      <c r="S17">
+        <v>214.91</v>
+      </c>
+      <c r="T17">
+        <v>271.81</v>
+      </c>
+      <c r="U17">
+        <v>335.57</v>
+      </c>
+      <c r="V17">
+        <v>212.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>122.2</v>
+      </c>
+      <c r="C18">
+        <v>172.7</v>
+      </c>
+      <c r="D18">
+        <v>257.38</v>
+      </c>
+      <c r="E18">
+        <v>257.33999999999997</v>
+      </c>
+      <c r="F18">
+        <v>85.72</v>
+      </c>
+      <c r="G18">
+        <v>154.35</v>
+      </c>
+      <c r="H18">
+        <v>163.13999999999999</v>
+      </c>
+      <c r="I18">
+        <v>128.41999999999999</v>
+      </c>
+      <c r="J18">
+        <v>236.73</v>
+      </c>
+      <c r="K18">
+        <v>273.25</v>
+      </c>
+      <c r="L18">
+        <v>112.09</v>
+      </c>
+      <c r="M18">
+        <v>272.23</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>155.28</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>258.64</v>
+      </c>
+      <c r="R18">
+        <v>344.9</v>
+      </c>
+      <c r="S18">
+        <v>106.96</v>
+      </c>
+      <c r="T18">
+        <v>247.98</v>
+      </c>
+      <c r="U18">
+        <v>33.21</v>
+      </c>
+      <c r="V18">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>102200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/QBEA.xlsx
+++ b/docs/QBEA.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman\IdeaProjects\sdmp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia2\code\sdmp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,11 @@
     <sheet name="Optimal" sheetId="3" r:id="rId1"/>
     <sheet name="Experiment" sheetId="4" r:id="rId2"/>
     <sheet name="QBEA Q-Values" sheetId="5" r:id="rId3"/>
+    <sheet name="Vary bias" sheetId="6" r:id="rId4"/>
+    <sheet name="Optimal (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="QBEA Q-Values (2)" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
   <si>
     <t>Time</t>
   </si>
@@ -126,11 +129,29 @@
   <si>
     <t>Time: 0.092 sec.</t>
   </si>
+  <si>
+    <t>Running experiment  bias: 100 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Running experiment  bias: 25 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Running experiment  bias: 15 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Running experiment  bias: 0 repeated 1000 averaged over 30</t>
+  </si>
+  <si>
+    <t>Bias 100</t>
+  </si>
+  <si>
+    <t>Bias 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -824,7 +845,6 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*-1</f>
         <v>-5</v>
       </c>
       <c r="E9" s="2">
@@ -875,47 +895,47 @@
       </c>
       <c r="C10" s="2">
         <f>30+2*(C9-C$2)+B8</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <f>IF(C9&gt;=0,30-2*(D9-D$2)+$B$8, 30-2*(D9-D$2)-$B$8)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:M10" si="6">IF(D9&gt;=0,30-2*(E9-E$2)+$B$8, 30-2*(E9-E$2)-$B$8)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -929,47 +949,47 @@
       </c>
       <c r="C11" s="2">
         <f>C10</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <f>C11+D10</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ref="E11" si="7">D11+E10</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="8">E11+F10</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11" si="9">F11+G10</f>
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ref="H11" si="10">G11+H10</f>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ref="I11" si="11">H11+I10</f>
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ref="J11" si="12">I11+J10</f>
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" ref="K11" si="13">J11+K10</f>
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" ref="L11" si="14">K11+L10</f>
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ref="M11" si="15">L11+M10</f>
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="N11" s="2">
         <f>$C$10*N$1/2+$E$10*N$1/2</f>
@@ -1066,43 +1086,43 @@
       </c>
       <c r="D15" s="1">
         <f>IF(C14&gt;=0,30-2*(D14-D$2)+$B$8, 30-2*(D14-D$2)-$B$8)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15" si="17">IF(D14&gt;=0,30-2*(E14-E$2)+$B$8, 30-2*(E14-E$2)-$B$8)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15" si="18">IF(E14&gt;=0,30-2*(F14-F$2)+$B$8, 30-2*(F14-F$2)-$B$8)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ref="G15" si="19">IF(F14&gt;=0,30-2*(G14-G$2)+$B$8, 30-2*(G14-G$2)-$B$8)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ref="H15" si="20">IF(G14&gt;=0,30-2*(H14-H$2)+$B$8, 30-2*(H14-H$2)-$B$8)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ref="I15" si="21">IF(H14&gt;=0,30-2*(I14-I$2)+$B$8, 30-2*(I14-I$2)-$B$8)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ref="J15" si="22">IF(I14&gt;=0,30-2*(J14-J$2)+$B$8, 30-2*(J14-J$2)-$B$8)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ref="K15" si="23">IF(J14&gt;=0,30-2*(K14-K$2)+$B$8, 30-2*(K14-K$2)-$B$8)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ref="L15" si="24">IF(K14&gt;=0,30-2*(L14-L$2)+$B$8, 30-2*(L14-L$2)-$B$8)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ref="M15" si="25">IF(L14&gt;=0,30-2*(M14-M$2)+$B$8, 30-2*(M14-M$2)-$B$8)</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1120,43 +1140,43 @@
       </c>
       <c r="D16" s="1">
         <f>C16+D15</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ref="E16" si="26">D16+E15</f>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ref="F16" si="27">E16+F15</f>
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16" si="28">F16+G15</f>
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ref="H16" si="29">G16+H15</f>
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16" si="30">H16+I15</f>
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ref="J16" si="31">I16+J15</f>
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16" si="32">J16+K15</f>
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ref="L16" si="33">K16+L15</f>
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ref="M16" si="34">L16+M15</f>
-        <v>455</v>
+        <v>305</v>
       </c>
       <c r="N16" s="1">
         <f>$C$10*N$1/2+$E$10*N$1/2</f>
@@ -1168,11 +1188,11 @@
       </c>
       <c r="P16" s="1">
         <f>$C$15*P$1/2+$D$15*P$1/2</f>
-        <v>40000</v>
+        <v>32500</v>
       </c>
       <c r="Q16" s="1">
         <f>$C$15*Q$1/2+$D$15*Q$1/2</f>
-        <v>80000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2092,10 +2112,4704 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1">
+        <v>-10</v>
+      </c>
+      <c r="D1">
+        <v>-9</v>
+      </c>
+      <c r="E1">
+        <v>-8</v>
+      </c>
+      <c r="F1">
+        <v>-7</v>
+      </c>
+      <c r="G1">
+        <v>-6</v>
+      </c>
+      <c r="H1">
+        <v>-5</v>
+      </c>
+      <c r="I1">
+        <v>-4</v>
+      </c>
+      <c r="J1">
+        <v>-3</v>
+      </c>
+      <c r="K1">
+        <v>-2</v>
+      </c>
+      <c r="L1">
+        <v>-1</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>7</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>9</v>
+      </c>
+      <c r="W1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-54.67</v>
+      </c>
+      <c r="D5">
+        <v>-48</v>
+      </c>
+      <c r="E5">
+        <v>-46.67</v>
+      </c>
+      <c r="F5">
+        <v>-46.67</v>
+      </c>
+      <c r="G5">
+        <v>-60</v>
+      </c>
+      <c r="H5">
+        <v>-66.67</v>
+      </c>
+      <c r="I5">
+        <v>-56</v>
+      </c>
+      <c r="J5">
+        <v>-57.33</v>
+      </c>
+      <c r="K5">
+        <v>-49.33</v>
+      </c>
+      <c r="L5">
+        <v>-54.67</v>
+      </c>
+      <c r="M5">
+        <v>73.33</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>73.33</v>
+      </c>
+      <c r="P5">
+        <v>82.67</v>
+      </c>
+      <c r="Q5">
+        <v>85.33</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>82.67</v>
+      </c>
+      <c r="T5">
+        <v>81.33</v>
+      </c>
+      <c r="U5">
+        <v>74.67</v>
+      </c>
+      <c r="V5">
+        <v>109.78</v>
+      </c>
+      <c r="W5">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-73.09</v>
+      </c>
+      <c r="D6">
+        <v>-57.14</v>
+      </c>
+      <c r="E6">
+        <v>111.78</v>
+      </c>
+      <c r="F6">
+        <v>-51.83</v>
+      </c>
+      <c r="G6">
+        <v>-47.84</v>
+      </c>
+      <c r="H6">
+        <v>-50.5</v>
+      </c>
+      <c r="I6">
+        <v>-49.17</v>
+      </c>
+      <c r="J6">
+        <v>-54.49</v>
+      </c>
+      <c r="K6">
+        <v>-54.49</v>
+      </c>
+      <c r="L6">
+        <v>-51.83</v>
+      </c>
+      <c r="M6">
+        <v>83.72</v>
+      </c>
+      <c r="N6">
+        <v>82.39</v>
+      </c>
+      <c r="O6">
+        <v>75.75</v>
+      </c>
+      <c r="P6">
+        <v>74.42</v>
+      </c>
+      <c r="Q6">
+        <v>83.72</v>
+      </c>
+      <c r="R6">
+        <v>77.08</v>
+      </c>
+      <c r="S6">
+        <v>82.39</v>
+      </c>
+      <c r="T6">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="U6">
+        <v>83.72</v>
+      </c>
+      <c r="V6">
+        <v>62.46</v>
+      </c>
+      <c r="W6">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-66.67</v>
+      </c>
+      <c r="D7">
+        <v>-50.67</v>
+      </c>
+      <c r="E7">
+        <v>-48</v>
+      </c>
+      <c r="F7">
+        <v>-66.67</v>
+      </c>
+      <c r="G7">
+        <v>-68</v>
+      </c>
+      <c r="H7">
+        <v>-58.67</v>
+      </c>
+      <c r="I7">
+        <v>-56</v>
+      </c>
+      <c r="J7">
+        <v>-58.67</v>
+      </c>
+      <c r="K7">
+        <v>-52</v>
+      </c>
+      <c r="L7">
+        <v>-49.33</v>
+      </c>
+      <c r="M7">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>77.33</v>
+      </c>
+      <c r="O7">
+        <v>82.67</v>
+      </c>
+      <c r="P7">
+        <v>80</v>
+      </c>
+      <c r="Q7">
+        <v>74.67</v>
+      </c>
+      <c r="R7">
+        <v>84</v>
+      </c>
+      <c r="S7">
+        <v>73.33</v>
+      </c>
+      <c r="T7">
+        <v>69.33</v>
+      </c>
+      <c r="U7">
+        <v>111.11</v>
+      </c>
+      <c r="V7">
+        <v>65.33</v>
+      </c>
+      <c r="W7">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-58.47</v>
+      </c>
+      <c r="D8">
+        <v>-63.79</v>
+      </c>
+      <c r="E8">
+        <v>122.48</v>
+      </c>
+      <c r="F8">
+        <v>-59.8</v>
+      </c>
+      <c r="G8">
+        <v>-51.83</v>
+      </c>
+      <c r="H8">
+        <v>-50.5</v>
+      </c>
+      <c r="I8">
+        <v>-47.84</v>
+      </c>
+      <c r="J8">
+        <v>-63.79</v>
+      </c>
+      <c r="K8">
+        <v>-54.49</v>
+      </c>
+      <c r="L8">
+        <v>-49.17</v>
+      </c>
+      <c r="M8">
+        <v>81.06</v>
+      </c>
+      <c r="N8">
+        <v>74.42</v>
+      </c>
+      <c r="O8">
+        <v>85.05</v>
+      </c>
+      <c r="P8">
+        <v>82.39</v>
+      </c>
+      <c r="Q8">
+        <v>83.72</v>
+      </c>
+      <c r="R8">
+        <v>67.77</v>
+      </c>
+      <c r="S8">
+        <v>81.06</v>
+      </c>
+      <c r="T8">
+        <v>65.12</v>
+      </c>
+      <c r="U8">
+        <v>83.72</v>
+      </c>
+      <c r="V8">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="W8">
+        <v>78.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>-91.36</v>
+      </c>
+      <c r="D9">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="E9">
+        <v>-75.89</v>
+      </c>
+      <c r="F9">
+        <v>-73.3</v>
+      </c>
+      <c r="G9">
+        <v>-79.89</v>
+      </c>
+      <c r="H9">
+        <v>-71.52</v>
+      </c>
+      <c r="I9">
+        <v>-66.540000000000006</v>
+      </c>
+      <c r="J9">
+        <v>-80.260000000000005</v>
+      </c>
+      <c r="K9">
+        <v>-74.069999999999993</v>
+      </c>
+      <c r="L9">
+        <v>-78.489999999999995</v>
+      </c>
+      <c r="M9">
+        <v>163.35</v>
+      </c>
+      <c r="N9">
+        <v>111.34</v>
+      </c>
+      <c r="O9">
+        <v>109.59</v>
+      </c>
+      <c r="P9">
+        <v>109.99</v>
+      </c>
+      <c r="Q9">
+        <v>95.44</v>
+      </c>
+      <c r="R9">
+        <v>104.29</v>
+      </c>
+      <c r="S9">
+        <v>98.07</v>
+      </c>
+      <c r="T9">
+        <v>98.44</v>
+      </c>
+      <c r="U9">
+        <v>107.76</v>
+      </c>
+      <c r="V9">
+        <v>103.34</v>
+      </c>
+      <c r="W9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-93.84</v>
+      </c>
+      <c r="D10">
+        <v>-30.27</v>
+      </c>
+      <c r="E10">
+        <v>29.3</v>
+      </c>
+      <c r="F10">
+        <v>-77.55</v>
+      </c>
+      <c r="G10">
+        <v>-67.3</v>
+      </c>
+      <c r="H10">
+        <v>-70.08</v>
+      </c>
+      <c r="I10">
+        <v>-82.76</v>
+      </c>
+      <c r="J10">
+        <v>-64.27</v>
+      </c>
+      <c r="K10">
+        <v>-69.55</v>
+      </c>
+      <c r="L10">
+        <v>-65.180000000000007</v>
+      </c>
+      <c r="M10">
+        <v>121.45</v>
+      </c>
+      <c r="N10">
+        <v>101.45</v>
+      </c>
+      <c r="O10">
+        <v>183.37</v>
+      </c>
+      <c r="P10">
+        <v>96.1</v>
+      </c>
+      <c r="Q10">
+        <v>107.67</v>
+      </c>
+      <c r="R10">
+        <v>103.6</v>
+      </c>
+      <c r="S10">
+        <v>98.29</v>
+      </c>
+      <c r="T10">
+        <v>109.86</v>
+      </c>
+      <c r="U10">
+        <v>108.12</v>
+      </c>
+      <c r="V10">
+        <v>86.79</v>
+      </c>
+      <c r="W10">
+        <v>108.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-69.27</v>
+      </c>
+      <c r="D11">
+        <v>-91.39</v>
+      </c>
+      <c r="E11">
+        <v>-75.52</v>
+      </c>
+      <c r="F11">
+        <v>-74.489999999999995</v>
+      </c>
+      <c r="G11">
+        <v>-83.42</v>
+      </c>
+      <c r="H11">
+        <v>-83.79</v>
+      </c>
+      <c r="I11">
+        <v>-22.81</v>
+      </c>
+      <c r="J11">
+        <v>-4.91</v>
+      </c>
+      <c r="K11">
+        <v>-67.47</v>
+      </c>
+      <c r="L11">
+        <v>-63.47</v>
+      </c>
+      <c r="M11">
+        <v>99.42</v>
+      </c>
+      <c r="N11">
+        <v>112.26</v>
+      </c>
+      <c r="O11">
+        <v>109.62</v>
+      </c>
+      <c r="P11">
+        <v>93.64</v>
+      </c>
+      <c r="Q11">
+        <v>94.52</v>
+      </c>
+      <c r="R11">
+        <v>113.59</v>
+      </c>
+      <c r="S11">
+        <v>96.79</v>
+      </c>
+      <c r="T11">
+        <v>69.41</v>
+      </c>
+      <c r="U11">
+        <v>102.49</v>
+      </c>
+      <c r="V11">
+        <v>101.62</v>
+      </c>
+      <c r="W11">
+        <v>94.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-5</v>
+      </c>
+      <c r="C12">
+        <v>-21.98</v>
+      </c>
+      <c r="D12">
+        <v>-69.52</v>
+      </c>
+      <c r="E12">
+        <v>62.68</v>
+      </c>
+      <c r="F12">
+        <v>-80.599999999999994</v>
+      </c>
+      <c r="G12">
+        <v>-63.79</v>
+      </c>
+      <c r="H12">
+        <v>-66.459999999999994</v>
+      </c>
+      <c r="I12">
+        <v>-64.27</v>
+      </c>
+      <c r="J12">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="K12">
+        <v>-73.930000000000007</v>
+      </c>
+      <c r="L12">
+        <v>-63.34</v>
+      </c>
+      <c r="M12">
+        <v>109.4</v>
+      </c>
+      <c r="N12">
+        <v>103.22</v>
+      </c>
+      <c r="O12">
+        <v>104.99</v>
+      </c>
+      <c r="P12">
+        <v>99.26</v>
+      </c>
+      <c r="Q12">
+        <v>118.64</v>
+      </c>
+      <c r="R12">
+        <v>103.6</v>
+      </c>
+      <c r="S12">
+        <v>225.48</v>
+      </c>
+      <c r="T12">
+        <v>101.87</v>
+      </c>
+      <c r="U12">
+        <v>108.88</v>
+      </c>
+      <c r="V12">
+        <v>91.3</v>
+      </c>
+      <c r="W12">
+        <v>100.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>-88.87</v>
+      </c>
+      <c r="D13">
+        <v>28.36</v>
+      </c>
+      <c r="E13">
+        <v>-85.49</v>
+      </c>
+      <c r="F13">
+        <v>-75.349999999999994</v>
+      </c>
+      <c r="G13">
+        <v>-87.17</v>
+      </c>
+      <c r="H13">
+        <v>-84.51</v>
+      </c>
+      <c r="I13">
+        <v>-87.31</v>
+      </c>
+      <c r="J13">
+        <v>-56.92</v>
+      </c>
+      <c r="K13">
+        <v>151.5</v>
+      </c>
+      <c r="L13">
+        <v>-74.75</v>
+      </c>
+      <c r="M13">
+        <v>240.94</v>
+      </c>
+      <c r="N13">
+        <v>119.17</v>
+      </c>
+      <c r="O13">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="P13">
+        <v>112.14</v>
+      </c>
+      <c r="Q13">
+        <v>111.56</v>
+      </c>
+      <c r="R13">
+        <v>116.64</v>
+      </c>
+      <c r="S13">
+        <v>211.32</v>
+      </c>
+      <c r="T13">
+        <v>109.36</v>
+      </c>
+      <c r="U13">
+        <v>195.9</v>
+      </c>
+      <c r="V13">
+        <v>104.91</v>
+      </c>
+      <c r="W13">
+        <v>204.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14">
+        <v>-71.239999999999995</v>
+      </c>
+      <c r="D14">
+        <v>-96.02</v>
+      </c>
+      <c r="E14">
+        <v>34.24</v>
+      </c>
+      <c r="F14">
+        <v>-70.91</v>
+      </c>
+      <c r="G14">
+        <v>26.45</v>
+      </c>
+      <c r="H14">
+        <v>-90.96</v>
+      </c>
+      <c r="I14">
+        <v>-72.91</v>
+      </c>
+      <c r="J14">
+        <v>-80.989999999999995</v>
+      </c>
+      <c r="K14">
+        <v>-88.14</v>
+      </c>
+      <c r="L14">
+        <v>-84.14</v>
+      </c>
+      <c r="M14">
+        <v>216.72</v>
+      </c>
+      <c r="N14">
+        <v>121</v>
+      </c>
+      <c r="O14">
+        <v>115.34</v>
+      </c>
+      <c r="P14">
+        <v>102.32</v>
+      </c>
+      <c r="Q14">
+        <v>115.79</v>
+      </c>
+      <c r="R14">
+        <v>108.89</v>
+      </c>
+      <c r="S14">
+        <v>208.1</v>
+      </c>
+      <c r="T14">
+        <v>113.02</v>
+      </c>
+      <c r="U14">
+        <v>122.9</v>
+      </c>
+      <c r="V14">
+        <v>122.36</v>
+      </c>
+      <c r="W14">
+        <v>93.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>-92.6</v>
+      </c>
+      <c r="D15">
+        <v>-86.06</v>
+      </c>
+      <c r="E15">
+        <v>-78.17</v>
+      </c>
+      <c r="F15">
+        <v>-36.6</v>
+      </c>
+      <c r="G15">
+        <v>-74.8</v>
+      </c>
+      <c r="H15">
+        <v>-73.790000000000006</v>
+      </c>
+      <c r="I15">
+        <v>-74.94</v>
+      </c>
+      <c r="J15">
+        <v>-71.09</v>
+      </c>
+      <c r="K15">
+        <v>132.41</v>
+      </c>
+      <c r="L15">
+        <v>-56.76</v>
+      </c>
+      <c r="M15">
+        <v>121.95</v>
+      </c>
+      <c r="N15">
+        <v>113.1</v>
+      </c>
+      <c r="O15">
+        <v>108.76</v>
+      </c>
+      <c r="P15">
+        <v>117.73</v>
+      </c>
+      <c r="Q15">
+        <v>108.86</v>
+      </c>
+      <c r="R15">
+        <v>178.42</v>
+      </c>
+      <c r="S15">
+        <v>190.15</v>
+      </c>
+      <c r="T15">
+        <v>174.42</v>
+      </c>
+      <c r="U15">
+        <v>98.24</v>
+      </c>
+      <c r="V15">
+        <v>93.46</v>
+      </c>
+      <c r="W15">
+        <v>103.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>-5</v>
+      </c>
+      <c r="C16">
+        <v>-98.91</v>
+      </c>
+      <c r="D16">
+        <v>-73.650000000000006</v>
+      </c>
+      <c r="E16">
+        <v>31.21</v>
+      </c>
+      <c r="F16">
+        <v>-91.12</v>
+      </c>
+      <c r="G16">
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="H16">
+        <v>-83.75</v>
+      </c>
+      <c r="I16">
+        <v>-77.290000000000006</v>
+      </c>
+      <c r="J16">
+        <v>-83.14</v>
+      </c>
+      <c r="K16">
+        <v>-72.459999999999994</v>
+      </c>
+      <c r="L16">
+        <v>-79</v>
+      </c>
+      <c r="M16">
+        <v>122.43</v>
+      </c>
+      <c r="N16">
+        <v>119.34</v>
+      </c>
+      <c r="O16">
+        <v>105.81</v>
+      </c>
+      <c r="P16">
+        <v>116.89</v>
+      </c>
+      <c r="Q16">
+        <v>121.61</v>
+      </c>
+      <c r="R16">
+        <v>116.13</v>
+      </c>
+      <c r="S16">
+        <v>98.74</v>
+      </c>
+      <c r="T16">
+        <v>102.84</v>
+      </c>
+      <c r="U16">
+        <v>118.15</v>
+      </c>
+      <c r="V16">
+        <v>118.35</v>
+      </c>
+      <c r="W16">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>-79.95</v>
+      </c>
+      <c r="D17">
+        <v>-94.17</v>
+      </c>
+      <c r="E17">
+        <v>-78.09</v>
+      </c>
+      <c r="F17">
+        <v>-99.07</v>
+      </c>
+      <c r="G17">
+        <v>-84.75</v>
+      </c>
+      <c r="H17">
+        <v>-86.71</v>
+      </c>
+      <c r="I17">
+        <v>-3.85</v>
+      </c>
+      <c r="J17">
+        <v>-74.53</v>
+      </c>
+      <c r="K17">
+        <v>49.81</v>
+      </c>
+      <c r="L17">
+        <v>-77.3</v>
+      </c>
+      <c r="M17">
+        <v>119.43</v>
+      </c>
+      <c r="N17">
+        <v>122.32</v>
+      </c>
+      <c r="O17">
+        <v>121.51</v>
+      </c>
+      <c r="P17">
+        <v>117.56</v>
+      </c>
+      <c r="Q17">
+        <v>140.65</v>
+      </c>
+      <c r="R17">
+        <v>121.49</v>
+      </c>
+      <c r="S17">
+        <v>205.03</v>
+      </c>
+      <c r="T17">
+        <v>99.62</v>
+      </c>
+      <c r="U17">
+        <v>97.64</v>
+      </c>
+      <c r="V17">
+        <v>116.71</v>
+      </c>
+      <c r="W17">
+        <v>177.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>-5</v>
+      </c>
+      <c r="C18">
+        <v>-104.42</v>
+      </c>
+      <c r="D18">
+        <v>-83.41</v>
+      </c>
+      <c r="E18">
+        <v>55.11</v>
+      </c>
+      <c r="F18">
+        <v>-91.75</v>
+      </c>
+      <c r="G18">
+        <v>-61.14</v>
+      </c>
+      <c r="H18">
+        <v>-69.239999999999995</v>
+      </c>
+      <c r="I18">
+        <v>-86.32</v>
+      </c>
+      <c r="J18">
+        <v>-84.31</v>
+      </c>
+      <c r="K18">
+        <v>-77.13</v>
+      </c>
+      <c r="L18">
+        <v>-81.14</v>
+      </c>
+      <c r="M18">
+        <v>148.47</v>
+      </c>
+      <c r="N18">
+        <v>122.18</v>
+      </c>
+      <c r="O18">
+        <v>114.46</v>
+      </c>
+      <c r="P18">
+        <v>120.5</v>
+      </c>
+      <c r="Q18">
+        <v>119.11</v>
+      </c>
+      <c r="R18">
+        <v>100.04</v>
+      </c>
+      <c r="S18">
+        <v>109.55</v>
+      </c>
+      <c r="T18">
+        <v>108.82</v>
+      </c>
+      <c r="U18">
+        <v>254.5</v>
+      </c>
+      <c r="V18">
+        <v>110.62</v>
+      </c>
+      <c r="W18">
+        <v>117.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>-86.52</v>
+      </c>
+      <c r="D19">
+        <v>-93.95</v>
+      </c>
+      <c r="E19">
+        <v>-66.569999999999993</v>
+      </c>
+      <c r="F19">
+        <v>-73.150000000000006</v>
+      </c>
+      <c r="G19">
+        <v>-79.95</v>
+      </c>
+      <c r="H19">
+        <v>-79.41</v>
+      </c>
+      <c r="I19">
+        <v>-70.92</v>
+      </c>
+      <c r="J19">
+        <v>-80.89</v>
+      </c>
+      <c r="K19">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="L19">
+        <v>-81.77</v>
+      </c>
+      <c r="M19">
+        <v>119.02</v>
+      </c>
+      <c r="N19">
+        <v>110.63</v>
+      </c>
+      <c r="O19">
+        <v>113.68</v>
+      </c>
+      <c r="P19">
+        <v>123.42</v>
+      </c>
+      <c r="Q19">
+        <v>104.25</v>
+      </c>
+      <c r="R19">
+        <v>116.25</v>
+      </c>
+      <c r="S19">
+        <v>117.47</v>
+      </c>
+      <c r="T19">
+        <v>241.09</v>
+      </c>
+      <c r="U19">
+        <v>116.13</v>
+      </c>
+      <c r="V19">
+        <v>123.99</v>
+      </c>
+      <c r="W19">
+        <v>112.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>-5</v>
+      </c>
+      <c r="C20">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="D20">
+        <v>-72.25</v>
+      </c>
+      <c r="E20">
+        <v>73.23</v>
+      </c>
+      <c r="F20">
+        <v>-86.33</v>
+      </c>
+      <c r="G20">
+        <v>-80.239999999999995</v>
+      </c>
+      <c r="H20">
+        <v>-81.89</v>
+      </c>
+      <c r="I20">
+        <v>-89.13</v>
+      </c>
+      <c r="J20">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="K20">
+        <v>-79.569999999999993</v>
+      </c>
+      <c r="L20">
+        <v>-76.75</v>
+      </c>
+      <c r="M20">
+        <v>117.41</v>
+      </c>
+      <c r="N20">
+        <v>152.18</v>
+      </c>
+      <c r="O20">
+        <v>121.1</v>
+      </c>
+      <c r="P20">
+        <v>121.7</v>
+      </c>
+      <c r="Q20">
+        <v>107.98</v>
+      </c>
+      <c r="R20">
+        <v>149.87</v>
+      </c>
+      <c r="S20">
+        <v>150.02000000000001</v>
+      </c>
+      <c r="T20">
+        <v>114.22</v>
+      </c>
+      <c r="U20">
+        <v>108.41</v>
+      </c>
+      <c r="V20">
+        <v>109.07</v>
+      </c>
+      <c r="W20">
+        <v>264.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>-94.84</v>
+      </c>
+      <c r="D21">
+        <v>-89.22</v>
+      </c>
+      <c r="E21">
+        <v>-87.21</v>
+      </c>
+      <c r="F21">
+        <v>-93.05</v>
+      </c>
+      <c r="G21">
+        <v>-81.02</v>
+      </c>
+      <c r="H21">
+        <v>-82.86</v>
+      </c>
+      <c r="I21">
+        <v>-78.599999999999994</v>
+      </c>
+      <c r="J21">
+        <v>-63.23</v>
+      </c>
+      <c r="K21">
+        <v>104.06</v>
+      </c>
+      <c r="L21">
+        <v>-85.17</v>
+      </c>
+      <c r="M21">
+        <v>124.43</v>
+      </c>
+      <c r="N21">
+        <v>159.26</v>
+      </c>
+      <c r="O21">
+        <v>125.85</v>
+      </c>
+      <c r="P21">
+        <v>117.81</v>
+      </c>
+      <c r="Q21">
+        <v>234.81</v>
+      </c>
+      <c r="R21">
+        <v>123.44</v>
+      </c>
+      <c r="S21">
+        <v>127</v>
+      </c>
+      <c r="T21">
+        <v>109.3</v>
+      </c>
+      <c r="U21">
+        <v>114.03</v>
+      </c>
+      <c r="V21">
+        <v>265.55</v>
+      </c>
+      <c r="W21">
+        <v>294.70999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>-5</v>
+      </c>
+      <c r="C22">
+        <v>-91.9</v>
+      </c>
+      <c r="D22">
+        <v>-85.41</v>
+      </c>
+      <c r="E22">
+        <v>109.81</v>
+      </c>
+      <c r="F22">
+        <v>-90.85</v>
+      </c>
+      <c r="G22">
+        <v>-81.709999999999994</v>
+      </c>
+      <c r="H22">
+        <v>-74.489999999999995</v>
+      </c>
+      <c r="I22">
+        <v>-78.069999999999993</v>
+      </c>
+      <c r="J22">
+        <v>55.92</v>
+      </c>
+      <c r="K22">
+        <v>-71.81</v>
+      </c>
+      <c r="L22">
+        <v>-86.06</v>
+      </c>
+      <c r="M22">
+        <v>131.24</v>
+      </c>
+      <c r="N22">
+        <v>156.27000000000001</v>
+      </c>
+      <c r="O22">
+        <v>166.85</v>
+      </c>
+      <c r="P22">
+        <v>127.81</v>
+      </c>
+      <c r="Q22">
+        <v>330.22</v>
+      </c>
+      <c r="R22">
+        <v>104.26</v>
+      </c>
+      <c r="S22">
+        <v>133.38</v>
+      </c>
+      <c r="T22">
+        <v>98.33</v>
+      </c>
+      <c r="U22">
+        <v>124.31</v>
+      </c>
+      <c r="V22">
+        <v>109.65</v>
+      </c>
+      <c r="W22">
+        <v>124.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>-74.650000000000006</v>
+      </c>
+      <c r="D23">
+        <v>-85.66</v>
+      </c>
+      <c r="E23">
+        <v>-95.6</v>
+      </c>
+      <c r="F23">
+        <v>-82.83</v>
+      </c>
+      <c r="G23">
+        <v>-73.23</v>
+      </c>
+      <c r="H23">
+        <v>-85.03</v>
+      </c>
+      <c r="I23">
+        <v>-88.42</v>
+      </c>
+      <c r="J23">
+        <v>-79.11</v>
+      </c>
+      <c r="K23">
+        <v>116.52</v>
+      </c>
+      <c r="L23">
+        <v>-74.31</v>
+      </c>
+      <c r="M23">
+        <v>122.6</v>
+      </c>
+      <c r="N23">
+        <v>137.97999999999999</v>
+      </c>
+      <c r="O23">
+        <v>315.01</v>
+      </c>
+      <c r="P23">
+        <v>121.5</v>
+      </c>
+      <c r="Q23">
+        <v>116.28</v>
+      </c>
+      <c r="R23">
+        <v>111.27</v>
+      </c>
+      <c r="S23">
+        <v>112.99</v>
+      </c>
+      <c r="T23">
+        <v>122.4</v>
+      </c>
+      <c r="U23">
+        <v>108.9</v>
+      </c>
+      <c r="V23">
+        <v>281.89</v>
+      </c>
+      <c r="W23">
+        <v>263.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>-10</v>
+      </c>
+      <c r="D25">
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <v>-8</v>
+      </c>
+      <c r="F25">
+        <v>-7</v>
+      </c>
+      <c r="G25">
+        <v>-6</v>
+      </c>
+      <c r="H25">
+        <v>-5</v>
+      </c>
+      <c r="I25">
+        <v>-4</v>
+      </c>
+      <c r="J25">
+        <v>-3</v>
+      </c>
+      <c r="K25">
+        <v>-2</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>8</v>
+      </c>
+      <c r="V25">
+        <v>9</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>-5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>-5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>-8.67</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>-6</v>
+      </c>
+      <c r="F29">
+        <v>7.33</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0.09</v>
+      </c>
+      <c r="I29">
+        <v>-4.67</v>
+      </c>
+      <c r="J29">
+        <v>-6</v>
+      </c>
+      <c r="K29">
+        <v>-3.33</v>
+      </c>
+      <c r="L29">
+        <v>0.67</v>
+      </c>
+      <c r="M29">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="N29">
+        <v>24.67</v>
+      </c>
+      <c r="O29">
+        <v>14</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="R29">
+        <v>44.04</v>
+      </c>
+      <c r="S29">
+        <v>27.33</v>
+      </c>
+      <c r="T29">
+        <v>28.67</v>
+      </c>
+      <c r="U29">
+        <v>14</v>
+      </c>
+      <c r="V29">
+        <v>12.67</v>
+      </c>
+      <c r="W29">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>-5</v>
+      </c>
+      <c r="C30">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="D30">
+        <v>7.28</v>
+      </c>
+      <c r="E30">
+        <v>37.15</v>
+      </c>
+      <c r="F30">
+        <v>8.64</v>
+      </c>
+      <c r="G30">
+        <v>3.32</v>
+      </c>
+      <c r="H30">
+        <v>-1.99</v>
+      </c>
+      <c r="I30">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="J30">
+        <v>-5.98</v>
+      </c>
+      <c r="K30">
+        <v>-5.98</v>
+      </c>
+      <c r="L30">
+        <v>7.31</v>
+      </c>
+      <c r="M30">
+        <v>24.58</v>
+      </c>
+      <c r="N30">
+        <v>29.9</v>
+      </c>
+      <c r="O30">
+        <v>28.57</v>
+      </c>
+      <c r="P30">
+        <v>27.24</v>
+      </c>
+      <c r="Q30">
+        <v>29.9</v>
+      </c>
+      <c r="R30">
+        <v>21.93</v>
+      </c>
+      <c r="S30">
+        <v>27.24</v>
+      </c>
+      <c r="T30">
+        <v>19.27</v>
+      </c>
+      <c r="U30">
+        <v>11.3</v>
+      </c>
+      <c r="V30">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="W30">
+        <v>19.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>-0.67</v>
+      </c>
+      <c r="D31">
+        <v>-6</v>
+      </c>
+      <c r="E31">
+        <v>4.67</v>
+      </c>
+      <c r="F31">
+        <v>-8.67</v>
+      </c>
+      <c r="G31">
+        <v>0.67</v>
+      </c>
+      <c r="H31">
+        <v>3.33</v>
+      </c>
+      <c r="I31">
+        <v>4.67</v>
+      </c>
+      <c r="J31">
+        <v>3.33</v>
+      </c>
+      <c r="K31">
+        <v>-2</v>
+      </c>
+      <c r="L31">
+        <v>3.33</v>
+      </c>
+      <c r="M31">
+        <v>20.67</v>
+      </c>
+      <c r="N31">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="O31">
+        <v>22</v>
+      </c>
+      <c r="P31">
+        <v>23.33</v>
+      </c>
+      <c r="Q31">
+        <v>23.33</v>
+      </c>
+      <c r="R31">
+        <v>15.33</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>14</v>
+      </c>
+      <c r="U31">
+        <v>8.67</v>
+      </c>
+      <c r="V31">
+        <v>34.22</v>
+      </c>
+      <c r="W31">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>-5</v>
+      </c>
+      <c r="C32">
+        <v>5.98</v>
+      </c>
+      <c r="D32">
+        <v>7.43</v>
+      </c>
+      <c r="E32">
+        <v>48.11</v>
+      </c>
+      <c r="F32">
+        <v>-8.64</v>
+      </c>
+      <c r="G32">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H32">
+        <v>7.31</v>
+      </c>
+      <c r="I32">
+        <v>7.31</v>
+      </c>
+      <c r="J32">
+        <v>11.94</v>
+      </c>
+      <c r="K32">
+        <v>8.64</v>
+      </c>
+      <c r="L32">
+        <v>5.98</v>
+      </c>
+      <c r="M32">
+        <v>27.24</v>
+      </c>
+      <c r="N32">
+        <v>34.6</v>
+      </c>
+      <c r="O32">
+        <v>13.95</v>
+      </c>
+      <c r="P32">
+        <v>25.91</v>
+      </c>
+      <c r="Q32">
+        <v>16.61</v>
+      </c>
+      <c r="R32">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="S32">
+        <v>13.95</v>
+      </c>
+      <c r="T32">
+        <v>46.27</v>
+      </c>
+      <c r="U32">
+        <v>20.6</v>
+      </c>
+      <c r="V32">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="W32">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>21.33</v>
+      </c>
+      <c r="D33">
+        <v>-9.76</v>
+      </c>
+      <c r="E33">
+        <v>-3.03</v>
+      </c>
+      <c r="F33">
+        <v>-1.81</v>
+      </c>
+      <c r="G33">
+        <v>-8.83</v>
+      </c>
+      <c r="H33">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="I33">
+        <v>-2.16</v>
+      </c>
+      <c r="J33">
+        <v>28.46</v>
+      </c>
+      <c r="K33">
+        <v>21.22</v>
+      </c>
+      <c r="L33">
+        <v>22.07</v>
+      </c>
+      <c r="M33">
+        <v>29.76</v>
+      </c>
+      <c r="N33">
+        <v>36.83</v>
+      </c>
+      <c r="O33">
+        <v>49.36</v>
+      </c>
+      <c r="P33">
+        <v>25.76</v>
+      </c>
+      <c r="Q33">
+        <v>29.74</v>
+      </c>
+      <c r="R33">
+        <v>32.33</v>
+      </c>
+      <c r="S33">
+        <v>30.21</v>
+      </c>
+      <c r="T33">
+        <v>46.48</v>
+      </c>
+      <c r="U33">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="V33">
+        <v>34.56</v>
+      </c>
+      <c r="W33">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>-5</v>
+      </c>
+      <c r="C34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D34">
+        <v>-0.54</v>
+      </c>
+      <c r="E34">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="F34">
+        <v>25.65</v>
+      </c>
+      <c r="G34">
+        <v>-12.84</v>
+      </c>
+      <c r="H34">
+        <v>-3.49</v>
+      </c>
+      <c r="I34">
+        <v>-2.62</v>
+      </c>
+      <c r="J34">
+        <v>-3</v>
+      </c>
+      <c r="K34">
+        <v>24.3</v>
+      </c>
+      <c r="L34">
+        <v>8.35</v>
+      </c>
+      <c r="M34">
+        <v>32.71</v>
+      </c>
+      <c r="N34">
+        <v>21.28</v>
+      </c>
+      <c r="O34">
+        <v>30.56</v>
+      </c>
+      <c r="P34">
+        <v>26.98</v>
+      </c>
+      <c r="Q34">
+        <v>25.31</v>
+      </c>
+      <c r="R34">
+        <v>18.71</v>
+      </c>
+      <c r="S34">
+        <v>22.22</v>
+      </c>
+      <c r="T34">
+        <v>57.88</v>
+      </c>
+      <c r="U34">
+        <v>24.34</v>
+      </c>
+      <c r="V34">
+        <v>27.01</v>
+      </c>
+      <c r="W34">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>8.41</v>
+      </c>
+      <c r="D35">
+        <v>3.93</v>
+      </c>
+      <c r="E35">
+        <v>-4.83</v>
+      </c>
+      <c r="F35">
+        <v>11.54</v>
+      </c>
+      <c r="G35">
+        <v>26.25</v>
+      </c>
+      <c r="H35">
+        <v>3.99</v>
+      </c>
+      <c r="I35">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J35">
+        <v>13.34</v>
+      </c>
+      <c r="K35">
+        <v>5.26</v>
+      </c>
+      <c r="L35">
+        <v>2.69</v>
+      </c>
+      <c r="M35">
+        <v>37.26</v>
+      </c>
+      <c r="N35">
+        <v>51.66</v>
+      </c>
+      <c r="O35">
+        <v>46.91</v>
+      </c>
+      <c r="P35">
+        <v>21.34</v>
+      </c>
+      <c r="Q35">
+        <v>35.93</v>
+      </c>
+      <c r="R35">
+        <v>29.21</v>
+      </c>
+      <c r="S35">
+        <v>23.51</v>
+      </c>
+      <c r="T35">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="U35">
+        <v>45.61</v>
+      </c>
+      <c r="V35">
+        <v>31.01</v>
+      </c>
+      <c r="W35">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>-5</v>
+      </c>
+      <c r="C36">
+        <v>-8.5</v>
+      </c>
+      <c r="D36">
+        <v>12.39</v>
+      </c>
+      <c r="E36">
+        <v>29.7</v>
+      </c>
+      <c r="F36">
+        <v>3.11</v>
+      </c>
+      <c r="G36">
+        <v>11.93</v>
+      </c>
+      <c r="H36">
+        <v>2.62</v>
+      </c>
+      <c r="I36">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="J36">
+        <v>-6.58</v>
+      </c>
+      <c r="K36">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L36">
+        <v>5.45</v>
+      </c>
+      <c r="M36">
+        <v>26.14</v>
+      </c>
+      <c r="N36">
+        <v>30.1</v>
+      </c>
+      <c r="O36">
+        <v>22.57</v>
+      </c>
+      <c r="P36">
+        <v>20.45</v>
+      </c>
+      <c r="Q36">
+        <v>23.64</v>
+      </c>
+      <c r="R36">
+        <v>58.57</v>
+      </c>
+      <c r="S36">
+        <v>33.68</v>
+      </c>
+      <c r="T36">
+        <v>31.91</v>
+      </c>
+      <c r="U36">
+        <v>36.32</v>
+      </c>
+      <c r="V36">
+        <v>25.31</v>
+      </c>
+      <c r="W36">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D37">
+        <v>4.08</v>
+      </c>
+      <c r="E37">
+        <v>-1.74</v>
+      </c>
+      <c r="F37">
+        <v>6.1</v>
+      </c>
+      <c r="G37">
+        <v>-3.68</v>
+      </c>
+      <c r="H37">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I37">
+        <v>37.03</v>
+      </c>
+      <c r="J37">
+        <v>9.92</v>
+      </c>
+      <c r="K37">
+        <v>50.82</v>
+      </c>
+      <c r="L37">
+        <v>-0.92</v>
+      </c>
+      <c r="M37">
+        <v>40.89</v>
+      </c>
+      <c r="N37">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O37">
+        <v>64.02</v>
+      </c>
+      <c r="P37">
+        <v>31.02</v>
+      </c>
+      <c r="Q37">
+        <v>38.36</v>
+      </c>
+      <c r="R37">
+        <v>37.5</v>
+      </c>
+      <c r="S37">
+        <v>57.76</v>
+      </c>
+      <c r="T37">
+        <v>30.38</v>
+      </c>
+      <c r="U37">
+        <v>39.71</v>
+      </c>
+      <c r="V37">
+        <v>22.32</v>
+      </c>
+      <c r="W37">
+        <v>63.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>-5</v>
+      </c>
+      <c r="C38">
+        <v>22.36</v>
+      </c>
+      <c r="D38">
+        <v>0.47</v>
+      </c>
+      <c r="E38">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="F38">
+        <v>-3.91</v>
+      </c>
+      <c r="G38">
+        <v>-12.39</v>
+      </c>
+      <c r="H38">
+        <v>5.72</v>
+      </c>
+      <c r="I38">
+        <v>-0.82</v>
+      </c>
+      <c r="J38">
+        <v>10.84</v>
+      </c>
+      <c r="K38">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="L38">
+        <v>1.92</v>
+      </c>
+      <c r="M38">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="N38">
+        <v>46.66</v>
+      </c>
+      <c r="O38">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="P38">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="Q38">
+        <v>54.55</v>
+      </c>
+      <c r="R38">
+        <v>40.46</v>
+      </c>
+      <c r="S38">
+        <v>35.5</v>
+      </c>
+      <c r="T38">
+        <v>29.75</v>
+      </c>
+      <c r="U38">
+        <v>12.49</v>
+      </c>
+      <c r="V38">
+        <v>24.77</v>
+      </c>
+      <c r="W38">
+        <v>40.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>-21.15</v>
+      </c>
+      <c r="D39">
+        <v>-3.27</v>
+      </c>
+      <c r="E39">
+        <v>-8.39</v>
+      </c>
+      <c r="F39">
+        <v>11.38</v>
+      </c>
+      <c r="G39">
+        <v>2.61</v>
+      </c>
+      <c r="H39">
+        <v>4.5</v>
+      </c>
+      <c r="I39">
+        <v>-7.82</v>
+      </c>
+      <c r="J39">
+        <v>3.84</v>
+      </c>
+      <c r="K39">
+        <v>47.66</v>
+      </c>
+      <c r="L39">
+        <v>2.82</v>
+      </c>
+      <c r="M39">
+        <v>37.65</v>
+      </c>
+      <c r="N39">
+        <v>31.36</v>
+      </c>
+      <c r="O39">
+        <v>38.25</v>
+      </c>
+      <c r="P39">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="Q39">
+        <v>37.79</v>
+      </c>
+      <c r="R39">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="S39">
+        <v>35.85</v>
+      </c>
+      <c r="T39">
+        <v>26.09</v>
+      </c>
+      <c r="U39">
+        <v>56.98</v>
+      </c>
+      <c r="V39">
+        <v>35.28</v>
+      </c>
+      <c r="W39">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>-4.33</v>
+      </c>
+      <c r="D40">
+        <v>6.54</v>
+      </c>
+      <c r="E40">
+        <v>30.98</v>
+      </c>
+      <c r="F40">
+        <v>12.48</v>
+      </c>
+      <c r="G40">
+        <v>6.84</v>
+      </c>
+      <c r="H40">
+        <v>6.56</v>
+      </c>
+      <c r="I40">
+        <v>4.09</v>
+      </c>
+      <c r="J40">
+        <v>1.39</v>
+      </c>
+      <c r="K40">
+        <v>3.22</v>
+      </c>
+      <c r="L40">
+        <v>2.09</v>
+      </c>
+      <c r="M40">
+        <v>30.58</v>
+      </c>
+      <c r="N40">
+        <v>63.2</v>
+      </c>
+      <c r="O40">
+        <v>53.49</v>
+      </c>
+      <c r="P40">
+        <v>34.86</v>
+      </c>
+      <c r="Q40">
+        <v>24.33</v>
+      </c>
+      <c r="R40">
+        <v>65.38</v>
+      </c>
+      <c r="S40">
+        <v>36.61</v>
+      </c>
+      <c r="T40">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="U40">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="V40">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="W40">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E41">
+        <v>-9.57</v>
+      </c>
+      <c r="F41">
+        <v>3.72</v>
+      </c>
+      <c r="G41">
+        <v>-6.8</v>
+      </c>
+      <c r="H41">
+        <v>9.99</v>
+      </c>
+      <c r="I41">
+        <v>26.92</v>
+      </c>
+      <c r="J41">
+        <v>15.76</v>
+      </c>
+      <c r="K41">
+        <v>55.06</v>
+      </c>
+      <c r="L41">
+        <v>29.34</v>
+      </c>
+      <c r="M41">
+        <v>29.75</v>
+      </c>
+      <c r="N41">
+        <v>48.97</v>
+      </c>
+      <c r="O41">
+        <v>36.83</v>
+      </c>
+      <c r="P41">
+        <v>36.61</v>
+      </c>
+      <c r="Q41">
+        <v>28.55</v>
+      </c>
+      <c r="R41">
+        <v>28.11</v>
+      </c>
+      <c r="S41">
+        <v>79.67</v>
+      </c>
+      <c r="T41">
+        <v>26.65</v>
+      </c>
+      <c r="U41">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="V41">
+        <v>59.17</v>
+      </c>
+      <c r="W41">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>-5</v>
+      </c>
+      <c r="C42">
+        <v>-19.03</v>
+      </c>
+      <c r="D42">
+        <v>7.02</v>
+      </c>
+      <c r="E42">
+        <v>31.67</v>
+      </c>
+      <c r="F42">
+        <v>10.95</v>
+      </c>
+      <c r="G42">
+        <v>10.95</v>
+      </c>
+      <c r="H42">
+        <v>7.07</v>
+      </c>
+      <c r="I42">
+        <v>-8.85</v>
+      </c>
+      <c r="J42">
+        <v>-0.31</v>
+      </c>
+      <c r="K42">
+        <v>5.49</v>
+      </c>
+      <c r="L42">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="M42">
+        <v>41.38</v>
+      </c>
+      <c r="N42">
+        <v>28.5</v>
+      </c>
+      <c r="O42">
+        <v>29.76</v>
+      </c>
+      <c r="P42">
+        <v>33.35</v>
+      </c>
+      <c r="Q42">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="R42">
+        <v>47.33</v>
+      </c>
+      <c r="S42">
+        <v>37.44</v>
+      </c>
+      <c r="T42">
+        <v>67.88</v>
+      </c>
+      <c r="U42">
+        <v>29.53</v>
+      </c>
+      <c r="V42">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="W42">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>-11.95</v>
+      </c>
+      <c r="D43">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="E43">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="F43">
+        <v>-7.61</v>
+      </c>
+      <c r="G43">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="H43">
+        <v>1.39</v>
+      </c>
+      <c r="I43">
+        <v>-2.58</v>
+      </c>
+      <c r="J43">
+        <v>-3.51</v>
+      </c>
+      <c r="K43">
+        <v>42.72</v>
+      </c>
+      <c r="L43">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M43">
+        <v>30.68</v>
+      </c>
+      <c r="N43">
+        <v>37.94</v>
+      </c>
+      <c r="O43">
+        <v>38.78</v>
+      </c>
+      <c r="P43">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="Q43">
+        <v>44.19</v>
+      </c>
+      <c r="R43">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="S43">
+        <v>33.71</v>
+      </c>
+      <c r="T43">
+        <v>64.45</v>
+      </c>
+      <c r="U43">
+        <v>26.58</v>
+      </c>
+      <c r="V43">
+        <v>48.14</v>
+      </c>
+      <c r="W43">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>-5</v>
+      </c>
+      <c r="C44">
+        <v>8.34</v>
+      </c>
+      <c r="D44">
+        <v>-16.34</v>
+      </c>
+      <c r="E44">
+        <v>41.79</v>
+      </c>
+      <c r="F44">
+        <v>12.34</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>42.34</v>
+      </c>
+      <c r="I44">
+        <v>2.09</v>
+      </c>
+      <c r="J44">
+        <v>37.07</v>
+      </c>
+      <c r="K44">
+        <v>6.54</v>
+      </c>
+      <c r="L44">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M44">
+        <v>39.81</v>
+      </c>
+      <c r="N44">
+        <v>41.7</v>
+      </c>
+      <c r="O44">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="P44">
+        <v>25.78</v>
+      </c>
+      <c r="Q44">
+        <v>84.5</v>
+      </c>
+      <c r="R44">
+        <v>38.64</v>
+      </c>
+      <c r="S44">
+        <v>42.98</v>
+      </c>
+      <c r="T44">
+        <v>26.57</v>
+      </c>
+      <c r="U44">
+        <v>48.79</v>
+      </c>
+      <c r="V44">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="W44">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5.43</v>
+      </c>
+      <c r="D45">
+        <v>-13</v>
+      </c>
+      <c r="E45">
+        <v>-10.38</v>
+      </c>
+      <c r="F45">
+        <v>8.92</v>
+      </c>
+      <c r="G45">
+        <v>56.11</v>
+      </c>
+      <c r="H45">
+        <v>-9.5</v>
+      </c>
+      <c r="I45">
+        <v>7.21</v>
+      </c>
+      <c r="J45">
+        <v>45.56</v>
+      </c>
+      <c r="K45">
+        <v>62.92</v>
+      </c>
+      <c r="L45">
+        <v>0.52</v>
+      </c>
+      <c r="M45">
+        <v>27.13</v>
+      </c>
+      <c r="N45">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="O45">
+        <v>68.83</v>
+      </c>
+      <c r="P45">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="Q45">
+        <v>42.14</v>
+      </c>
+      <c r="R45">
+        <v>96.93</v>
+      </c>
+      <c r="S45">
+        <v>30.45</v>
+      </c>
+      <c r="T45">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="U45">
+        <v>61.99</v>
+      </c>
+      <c r="V45">
+        <v>44.39</v>
+      </c>
+      <c r="W45">
+        <v>66.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>-5</v>
+      </c>
+      <c r="C46">
+        <v>-5.22</v>
+      </c>
+      <c r="D46">
+        <v>2.44</v>
+      </c>
+      <c r="E46">
+        <v>43.48</v>
+      </c>
+      <c r="F46">
+        <v>4.59</v>
+      </c>
+      <c r="G46">
+        <v>-0.15</v>
+      </c>
+      <c r="H46">
+        <v>7.3</v>
+      </c>
+      <c r="I46">
+        <v>4.26</v>
+      </c>
+      <c r="J46">
+        <v>-6.4</v>
+      </c>
+      <c r="K46">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="L46">
+        <v>5.39</v>
+      </c>
+      <c r="M46">
+        <v>32.11</v>
+      </c>
+      <c r="N46">
+        <v>31.76</v>
+      </c>
+      <c r="O46">
+        <v>34.04</v>
+      </c>
+      <c r="P46">
+        <v>31.76</v>
+      </c>
+      <c r="Q46">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="R46">
+        <v>32.35</v>
+      </c>
+      <c r="S46">
+        <v>23.27</v>
+      </c>
+      <c r="T46">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="U46">
+        <v>81.25</v>
+      </c>
+      <c r="V46">
+        <v>22.99</v>
+      </c>
+      <c r="W46">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2.94</v>
+      </c>
+      <c r="D47">
+        <v>2.79</v>
+      </c>
+      <c r="E47">
+        <v>-6.02</v>
+      </c>
+      <c r="F47">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="G47">
+        <v>11.32</v>
+      </c>
+      <c r="H47">
+        <v>11.43</v>
+      </c>
+      <c r="I47">
+        <v>11.64</v>
+      </c>
+      <c r="J47">
+        <v>-9.52</v>
+      </c>
+      <c r="K47">
+        <v>54.99</v>
+      </c>
+      <c r="L47">
+        <v>2.12</v>
+      </c>
+      <c r="M47">
+        <v>83.48</v>
+      </c>
+      <c r="N47">
+        <v>42.53</v>
+      </c>
+      <c r="O47">
+        <v>24.59</v>
+      </c>
+      <c r="P47">
+        <v>42.75</v>
+      </c>
+      <c r="Q47">
+        <v>24.32</v>
+      </c>
+      <c r="R47">
+        <v>21.26</v>
+      </c>
+      <c r="S47">
+        <v>37.69</v>
+      </c>
+      <c r="T47">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="U47">
+        <v>17.66</v>
+      </c>
+      <c r="V47">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="W47">
+        <v>40.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>125000</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>30200</v>
+      </c>
+      <c r="C3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>99385.333333333299</v>
+      </c>
+      <c r="C4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>106819.4</v>
+      </c>
+      <c r="C5">
+        <v>6.7220000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>30050</v>
+      </c>
+      <c r="C9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>30456</v>
+      </c>
+      <c r="C10">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>38538.866666666603</v>
+      </c>
+      <c r="C11">
+        <v>5.673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>40000</v>
+      </c>
+      <c r="C14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>30030</v>
+      </c>
+      <c r="C15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>25847.5333333333</v>
+      </c>
+      <c r="C16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>29372.2</v>
+      </c>
+      <c r="C17">
+        <v>7.2320000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>30000</v>
+      </c>
+      <c r="C20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>30000</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>21359.266666666601</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>10852.1333333333</v>
+      </c>
+      <c r="C23">
+        <v>6.9059999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:M1" si="0">D1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>100</v>
+      </c>
+      <c r="O1">
+        <v>500</v>
+      </c>
+      <c r="P1">
+        <v>1000</v>
+      </c>
+      <c r="Q1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>C2*-1</f>
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:M2" si="1">D2*-1</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>C4*-1</f>
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:M4" si="2">D4*-1</f>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>30+2*(C4-C$2)+B3</f>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f>IF(C4&gt;=0,30-2*(D4-D$2)+$B$3, 30-2*(D4-D$2)-$B$3)</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:M5" si="3">IF(D4&gt;=0,30-2*(E4-E$2)+$B$3, 30-2*(E4-E$2)-$B$3)</f>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>C5</f>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f>C6+D5</f>
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:M6" si="4">D6+E5</f>
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="N6">
+        <f>$C$5*N1</f>
+        <v>3000</v>
+      </c>
+      <c r="O6">
+        <f>$C$5*O1</f>
+        <v>15000</v>
+      </c>
+      <c r="P6">
+        <f>$C$5*P1</f>
+        <v>30000</v>
+      </c>
+      <c r="Q6">
+        <f>$C$5*Q1</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9*-1</f>
+        <v>-5</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:M9" si="5">D9*-1</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <f>30+2*(C9-C$2)+B8</f>
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF(C9&gt;=0,30-2*(D9-D$2)+$B$8, 30-2*(D9-D$2)-$B$8)</f>
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:M10" si="6">IF(D9&gt;=0,30-2*(E9-E$2)+$B$8, 30-2*(E9-E$2)-$B$8)</f>
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C10</f>
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11+D10</f>
+        <v>90</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:M11" si="7">D11+E10</f>
+        <v>105</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="7"/>
+        <v>330</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="7"/>
+        <v>345</v>
+      </c>
+      <c r="N11" s="2">
+        <f>$C$10*N$1/2+$E$10*N$1/2</f>
+        <v>3000</v>
+      </c>
+      <c r="O11" s="2">
+        <f>$C$10*O$1/2+$E$10*O$1/2</f>
+        <v>15000</v>
+      </c>
+      <c r="P11" s="2">
+        <f>$C$10*P$1/2+$E$10*P$1/2</f>
+        <v>30000</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>$C$10*Q$1/2+$E$10*Q$1/2</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14" si="8">L14*-1</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <f>30+2*(C14-C$2)+B13</f>
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(C14&gt;=0,30-2*(D14-D$2)+$B$8, 30-2*(D14-D$2)-$B$8)</f>
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:M15" si="9">IF(D14&gt;=0,30-2*(E14-E$2)+$B$8, 30-2*(E14-E$2)-$B$8)</f>
+        <v>45</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15</f>
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16+D15</f>
+        <v>80</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:M16" si="10">D16+E15</f>
+        <v>125</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="10"/>
+        <v>205</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="10"/>
+        <v>320</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="10"/>
+        <v>365</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="10"/>
+        <v>455</v>
+      </c>
+      <c r="N16" s="1">
+        <f>$C$10*N$1/2+$E$10*N$1/2</f>
+        <v>3000</v>
+      </c>
+      <c r="O16" s="1">
+        <f>$C$10*O$1/2+$E$10*O$1/2</f>
+        <v>15000</v>
+      </c>
+      <c r="P16" s="1">
+        <f>$C$15*P$1/2+$D$15*P$1/2</f>
+        <v>40000</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>$C$15*Q$1/2+$D$15*Q$1/2</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <f>30+2*(C19-C$2)+B18</f>
+        <v>130</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:M20" si="11">IF(C19&gt;=0,30-2*(D19-D$2)+$B$18, 30-2*(D19-D$2)-$B$18)</f>
+        <v>120</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C20</f>
+        <v>130</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21+D20</f>
+        <v>250</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:M21" si="12">D21+E20</f>
+        <v>380</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="12"/>
+        <v>630</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="12"/>
+        <v>750</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="12"/>
+        <v>880</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="12"/>
+        <v>1130</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="12"/>
+        <v>1250</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="12"/>
+        <v>1380</v>
+      </c>
+      <c r="N21" s="1">
+        <f>$C$20*N$1/2+$D$20*N$1/2</f>
+        <v>12500</v>
+      </c>
+      <c r="O21" s="1">
+        <f>$C$20*O$1/2+$D$20*O$1/2</f>
+        <v>62500</v>
+      </c>
+      <c r="P21" s="1">
+        <f>$C$20*P$1/2+$D$20*P$1/2</f>
+        <v>125000</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>$C$20*Q$1/2+$D$20*Q$1/2</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>10</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <f>30+2*(C24-C$2)+B23</f>
+        <v>130</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IF(C24&gt;=0,30-2*(D24-D$2)+$B$23, 30-2*(D24-D$2)-$B$23)</f>
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:M25" si="13">IF(D24&gt;=0,30-2*(E24-E$2)+$B$23, 30-2*(E24-E$2)-$B$23)</f>
+        <v>130</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C25</f>
+        <v>130</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26+D25</f>
+        <v>230</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:G26" si="14">D26+E25</f>
+        <v>360</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="14"/>
+        <v>460</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="14"/>
+        <v>590</v>
+      </c>
+      <c r="H26" s="2">
+        <f>G26+H25</f>
+        <v>690</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" ref="I26:M26" si="15">H26+I25</f>
+        <v>820</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="15"/>
+        <v>920</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="15"/>
+        <v>1150</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="15"/>
+        <v>1280</v>
+      </c>
+      <c r="N26" s="2">
+        <f>$C$25*N$1/2+$D$25*N$1/2</f>
+        <v>11500</v>
+      </c>
+      <c r="O26" s="2">
+        <f>$C$25*O$1/2+$D$25*O$1/2</f>
+        <v>57500</v>
+      </c>
+      <c r="P26" s="2">
+        <f>$C$25*P$1/2+$D$25*P$1/2</f>
+        <v>115000</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>$C$25*Q$1/2+$D$25*Q$1/2</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <f>30+2*(C29-C$2)+B28</f>
+        <v>130</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:M30" si="16">IF(C29&gt;=0,30-2*(D29-D$2)+$B$28, 30-2*(D29-D$2)-$B$28)</f>
+        <v>118</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C30</f>
+        <v>130</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31+D30</f>
+        <v>248</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:M31" si="17">D31+E30</f>
+        <v>378</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="17"/>
+        <v>496</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="17"/>
+        <v>626</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="17"/>
+        <v>744</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="17"/>
+        <v>874</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="17"/>
+        <v>992</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="17"/>
+        <v>1122</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="17"/>
+        <v>1240</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="17"/>
+        <v>1370</v>
+      </c>
+      <c r="N31" s="2">
+        <f>$C$30*N$1/2+$D$30*N$1/2</f>
+        <v>12400</v>
+      </c>
+      <c r="O31" s="2">
+        <f>$C$30*O$1/2+$D$30*O$1/2</f>
+        <v>62000</v>
+      </c>
+      <c r="P31" s="2">
+        <f>$C$30*P$1/2+$D$30*P$1/2</f>
+        <v>124000</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>$C$30*Q$1/2+$D$30*Q$1/2</f>
+        <v>248000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/QBEA.xlsx
+++ b/docs/QBEA.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EDO Strategies 100" sheetId="13" r:id="rId1"/>
-    <sheet name="EDO Strategies 15" sheetId="15" r:id="rId2"/>
-    <sheet name="Results t=0" sheetId="9" r:id="rId3"/>
-    <sheet name="Results ft" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
-    <sheet name="Vary bias" sheetId="6" r:id="rId6"/>
-    <sheet name="Optimal" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
+    <sheet name="EDO Strategies 15" sheetId="15" r:id="rId3"/>
+    <sheet name="Results t=0" sheetId="9" r:id="rId4"/>
+    <sheet name="Results ft" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
+    <sheet name="Vary bias" sheetId="6" r:id="rId7"/>
+    <sheet name="Optimal" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="71">
   <si>
     <t>Time</t>
   </si>
@@ -231,6 +232,18 @@
   </si>
   <si>
     <t>QBEA:</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>Random then best</t>
+  </si>
+  <si>
+    <t>RTB - 1+1</t>
+  </si>
+  <si>
+    <t>Split</t>
   </si>
 </sst>
 </file>
@@ -11165,7 +11178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11630,7 +11642,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11737,7 +11748,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12202,7 +12212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12309,7 +12318,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12774,7 +12782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12881,7 +12888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13346,7 +13352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13453,7 +13458,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14507,7 +14511,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14614,7 +14617,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15247,7 +15249,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15354,7 +15355,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15987,7 +15987,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16094,7 +16093,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17039,7 +17037,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17146,7 +17143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18091,7 +18087,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18198,7 +18193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19743,7 +19737,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19850,7 +19843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21395,7 +21387,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -37539,7 +37530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -38984,6 +38975,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>22209.0666666666</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22209.0666666666</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>17806.0666666666</v>
+      </c>
+      <c r="H3" s="5">
+        <v>17806.0666666666</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>22209.0666666666</v>
+      </c>
+      <c r="C4" s="5">
+        <v>22209.0666666666</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D24" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>17806.0666666666</v>
+      </c>
+      <c r="H4" s="5">
+        <v>17806.0666666666</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I24" si="1">H4-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27359.5333333333</v>
+      </c>
+      <c r="C5" s="5">
+        <v>28046.933333333302</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>687.40000000000146</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>22996.2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>23014.933333333302</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>18.733333333300834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>28649.933333333302</v>
+      </c>
+      <c r="C6" s="5">
+        <v>28642.733333333301</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.2000000000007276</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25096.933333333302</v>
+      </c>
+      <c r="H6" s="5">
+        <v>25021.733333333301</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>-75.200000000000728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>28597.4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>29236.6</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>639.19999999999709</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>26177.733333333301</v>
+      </c>
+      <c r="H7" s="5">
+        <v>26176.6</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.1333333333022892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>28577.866666666599</v>
+      </c>
+      <c r="C8" s="5">
+        <v>28821.200000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>243.33333333340124</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>26804.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>26735.866666666599</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>-68.333333333401242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>28336.733333333301</v>
+      </c>
+      <c r="C9" s="5">
+        <v>28573.733333333301</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>27231.733333333301</v>
+      </c>
+      <c r="H9" s="5">
+        <v>27123.0666666666</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>-108.66666666670062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>28347.4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>28579.200000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>231.79999999999927</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>27582.400000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>27496.866666666599</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>-85.53333333340197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>28408.5333333333</v>
+      </c>
+      <c r="C11" s="5">
+        <v>28471.599999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>63.066666666698438</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>27819.200000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>27740.6</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>-78.600000000002183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>28403.266666666601</v>
+      </c>
+      <c r="C12" s="5">
+        <v>28378.0666666666</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>-25.200000000000728</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <v>28023.599999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>27902.0666666666</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>-121.53333333339833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>28503.133333333299</v>
+      </c>
+      <c r="C13" s="5">
+        <v>28533.599999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>30.466666666699894</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>28208.466666666602</v>
+      </c>
+      <c r="H13" s="5">
+        <v>28142.6</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>-65.866666666603123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>28591.4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>28539.8</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>-51.600000000002183</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <v>28364.733333333301</v>
+      </c>
+      <c r="H14" s="5">
+        <v>28262.133333333299</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>-102.60000000000218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>28738.933333333302</v>
+      </c>
+      <c r="C15" s="5">
+        <v>28655.599999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>-83.333333333303017</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>28506.6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>28411.933333333302</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>-94.666666666696983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>28819.5333333333</v>
+      </c>
+      <c r="C16" s="5">
+        <v>28752.6</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>-66.933333333301562</v>
+      </c>
+      <c r="F16" s="5">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5">
+        <v>28621.200000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>28542.933333333302</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>-78.266666666699166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>28912.933333333302</v>
+      </c>
+      <c r="C17" s="5">
+        <v>28815.466666666602</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>-97.466666666699894</v>
+      </c>
+      <c r="F17" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5">
+        <v>28737.266666666601</v>
+      </c>
+      <c r="H17" s="5">
+        <v>28622.799999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>-114.46666666660167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>29021.866666666599</v>
+      </c>
+      <c r="C18" s="5">
+        <v>28937.4</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>-84.46666666659803</v>
+      </c>
+      <c r="F18" s="5">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5">
+        <v>28834.866666666599</v>
+      </c>
+      <c r="H18" s="5">
+        <v>28744.733333333301</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>-90.133333333298651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>29090.466666666602</v>
+      </c>
+      <c r="C19" s="5">
+        <v>29000.866666666599</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>-89.600000000002183</v>
+      </c>
+      <c r="F19" s="5">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <v>28914.799999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>28825.200000000001</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>-89.599999999998545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>29164.2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>29090.5333333333</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>-73.666666666700621</v>
+      </c>
+      <c r="F20" s="5">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5">
+        <v>28988.5333333333</v>
+      </c>
+      <c r="H20" s="5">
+        <v>28909.200000000001</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>-79.333333333299379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>29230.733333333301</v>
+      </c>
+      <c r="C21" s="5">
+        <v>29141.4</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>-89.333333333299379</v>
+      </c>
+      <c r="F21" s="5">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
+        <v>29055.0666666666</v>
+      </c>
+      <c r="H21" s="5">
+        <v>28965.733333333301</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>-89.333333333299379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>29279.8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>29203.4</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>-76.399999999997817</v>
+      </c>
+      <c r="F22" s="5">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5">
+        <v>29109.8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>29027.733333333301</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>-82.066666666698438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>29354.266666666601</v>
+      </c>
+      <c r="C23" s="5">
+        <v>29264.6</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>-89.666666666602396</v>
+      </c>
+      <c r="F23" s="5">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5">
+        <v>29184.266666666601</v>
+      </c>
+      <c r="H23" s="5">
+        <v>29088.933333333302</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>-95.333333333299379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>30200</v>
+      </c>
+      <c r="C24" s="5">
+        <v>30200</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>21</v>
+      </c>
+      <c r="G24" s="5">
+        <v>30030</v>
+      </c>
+      <c r="H24" s="5">
+        <v>30030</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>117632.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28">
+        <v>32712.5333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>116979.8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>32099.4</v>
+      </c>
+      <c r="H30">
+        <v>32612.333333333299</v>
+      </c>
+      <c r="I30">
+        <v>32294.333333333299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>22433.5333333333</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>17894.5333333333</v>
+      </c>
+      <c r="H31">
+        <v>32242.466666666602</v>
+      </c>
+      <c r="I31">
+        <v>31403.666666666599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>117004.33333333299</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>32190.0666666666</v>
+      </c>
+      <c r="H32">
+        <v>31940.2</v>
+      </c>
+      <c r="I32">
+        <v>31596.733333333301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>116984.8</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>31737.5333333333</v>
+      </c>
+      <c r="H33">
+        <v>31755.266666666601</v>
+      </c>
+      <c r="I33">
+        <v>31037.5333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>116545.2</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>31167.866666666599</v>
+      </c>
+      <c r="H34">
+        <v>31453.5333333333</v>
+      </c>
+      <c r="I34">
+        <v>32670.5333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>116328.066666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>31820.400000000001</v>
+      </c>
+      <c r="H35">
+        <v>32139.200000000001</v>
+      </c>
+      <c r="I35">
+        <v>31597.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>117539.33333333299</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>32647.4</v>
+      </c>
+      <c r="H36">
+        <v>31566.266666666601</v>
+      </c>
+      <c r="I36">
+        <v>31406.733333333301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>117311.33333333299</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>31254.0666666666</v>
+      </c>
+      <c r="H37">
+        <v>32007.666666666599</v>
+      </c>
+      <c r="I37">
+        <v>32656.666666666599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>116986.933333333</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>32560.866666666599</v>
+      </c>
+      <c r="H38">
+        <v>32340.333333333299</v>
+      </c>
+      <c r="I38">
+        <v>31184.933333333302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>117794.8</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>33037.800000000003</v>
+      </c>
+      <c r="H39">
+        <v>32099.5333333333</v>
+      </c>
+      <c r="I39">
+        <v>31811.333333333299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>117677.33333333299</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>32348.5333333333</v>
+      </c>
+      <c r="H40">
+        <v>31395.933333333302</v>
+      </c>
+      <c r="I40">
+        <v>31256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>116952.866666666</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>32277.599999999999</v>
+      </c>
+      <c r="H41">
+        <v>32458.133333333299</v>
+      </c>
+      <c r="I41">
+        <v>32918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>116780.933333333</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>32177.5333333333</v>
+      </c>
+      <c r="H42">
+        <v>32184.0666666666</v>
+      </c>
+      <c r="I42">
+        <v>31114.133333333299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>116568.6</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>32217.733333333301</v>
+      </c>
+      <c r="H43">
+        <v>32317.200000000001</v>
+      </c>
+      <c r="I43">
+        <v>32406.733333333301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>117198.26666666599</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>34504.466666666602</v>
+      </c>
+      <c r="H44">
+        <v>33005.933333333298</v>
+      </c>
+      <c r="I44">
+        <v>31732.933333333302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>117599.8</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>33008.400000000001</v>
+      </c>
+      <c r="H45">
+        <v>32367.599999999999</v>
+      </c>
+      <c r="I45">
+        <v>31921.0666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>117154.933333333</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>32903.933333333298</v>
+      </c>
+      <c r="H46">
+        <v>32716.466666666602</v>
+      </c>
+      <c r="I46">
+        <v>32278.266666666601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>118157.6</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>33024.199999999997</v>
+      </c>
+      <c r="H47">
+        <v>32144.0666666666</v>
+      </c>
+      <c r="I47">
+        <v>32325.666666666599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>117031.666666666</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>33959.133333333302</v>
+      </c>
+      <c r="H48">
+        <v>32817.266666666597</v>
+      </c>
+      <c r="I48">
+        <v>32586.333333333299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>117943.8</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>33736.400000000001</v>
+      </c>
+      <c r="H49">
+        <v>31875.0666666666</v>
+      </c>
+      <c r="I49">
+        <v>32651.666666666599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>117401.33333333299</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>33162.266666666597</v>
+      </c>
+      <c r="H50">
+        <v>32051.4</v>
+      </c>
+      <c r="I50">
+        <v>32041.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>116295.933333333</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>32918.6</v>
+      </c>
+      <c r="H51">
+        <v>32182.666666666599</v>
+      </c>
+      <c r="I51">
+        <v>32608.400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
@@ -40838,7 +41990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CX64"/>
   <sheetViews>
@@ -45619,7 +46771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI110"/>
   <sheetViews>
@@ -48272,7 +49424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
@@ -49981,7 +51133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -50192,7 +51344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
